--- a/biology/Médecine/1629_en_santé_et_médecine/1629_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1629_en_santé_et_médecine/1629_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1629_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1629_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1629 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1629_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1629_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15 janvier : enregistrement du  code Michau, dont les articles 41 et 42 se rapportent à l’administration des hospices et à la police des mendiants[1].
-27 juin : le prévôt des marchands accorde à la communauté des épiciers et apothicaires parisiens le droit de porter des armoiries[2], avec la devise :  Lances et pondera servant (« Ils ont la garde des balances et des poids[3] »).
-Considérant que « la plupart des habitants sont très pauvres et que, faute d'abri et de soins, ils meurent ou souffrent de graves maladies », Pedro Morán Pereira fonde à Zamora, en Espagne, l'hôpital de l'Incarnation (es), à ses propres frais et sur le patrimoine confié à lui par son frère Isidro[4].
-Fondation du jardin médicinal (hortus medicus) qui est à l'origine de l'actuel jardin botanique de Bordeaux[5].
-Ouverture à Pignerol, en Piémont, pendant le siège de Casal, d'un hôpital militaire territorial, premier du genre[6].
-La peste est à Montpellier[7].
-1628-1629 : la peste est à Lyon, qui perd la moitié de sa population[8].
-Après 1629 : « Descartes entreprend […] de rechercher « s'il y a moyen de trouver une médecine qui soit fondée en démonstrations infaillibles[9] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15 janvier : enregistrement du  code Michau, dont les articles 41 et 42 se rapportent à l’administration des hospices et à la police des mendiants.
+27 juin : le prévôt des marchands accorde à la communauté des épiciers et apothicaires parisiens le droit de porter des armoiries, avec la devise :  Lances et pondera servant (« Ils ont la garde des balances et des poids »).
+Considérant que « la plupart des habitants sont très pauvres et que, faute d'abri et de soins, ils meurent ou souffrent de graves maladies », Pedro Morán Pereira fonde à Zamora, en Espagne, l'hôpital de l'Incarnation (es), à ses propres frais et sur le patrimoine confié à lui par son frère Isidro.
+Fondation du jardin médicinal (hortus medicus) qui est à l'origine de l'actuel jardin botanique de Bordeaux.
+Ouverture à Pignerol, en Piémont, pendant le siège de Casal, d'un hôpital militaire territorial, premier du genre.
+La peste est à Montpellier.
+1628-1629 : la peste est à Lyon, qui perd la moitié de sa population.
+Après 1629 : « Descartes entreprend […] de rechercher « s'il y a moyen de trouver une médecine qui soit fondée en démonstrations infaillibles ».</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1629_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1629_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,34 +564,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Divers
-Nicolas Ager (1568-1634) fait paraître une étude sur l'« âme végétative » (Disputatio de anima vegetativa), et on lui en attribue une autre, la même année, sur les « déchirures du mésentère » (Disputatio de infractibus mesaroei[10]).
-Camillo Baldi, philosophe et médecin bolonais, publie deux traités sous les titres de De naturali ex unguium inspectione[11] et De humanarum propensionem ex temperamento praenotionibus[12].
-Parution de la Semaine des médicaments, de Jean Bonnart, maître barbier chirurgien de Paris[13].
-Laurens Catelan, maître apothicaire à Montpellier, publie son Discours sur les vertus et propriétés de la thériaque[14],[15].
-Nicolas Chesneau, docteur de la faculté de médecine de Toulouse, fait paraître un discours sur les eaux thermales de Barbotan, en Armagnac[16].
-Parution, à Messine, de la Pharmacopée[17] de Giovanni Battista Cortesi (it)[18].
-Juan Gutiérrez de Godoy (1579-1656), médecin du chapitre de Jaén et du cardinal Moscoso y Sandoval[19], fait paraître en latin des « discours philosophiques et médicaux sur le Traité de la mémoire et de la réminiscence d'Aristote[20] ».
-Caspar Hofmann (1572-1648), professeur de médecine à Altdorf, publie ses « Quatre livres sur la génération humaine, contre Mondino de' Liuzzi » (De generatione hominis, contra Mundinum Mundinium[21]).
-Le poète italien Giovanni Battista Lalli fait paraître sa Franceide, overo Del mal francese, poema giocoso, poème burlesque, « plus bouffon que médical[22] », sur la syphilis[23].
-Andreas Lay publie la thèse de médecine qu'il a soutenue à Strasbourg  « sur la nature et le traitement de la fièvre hongroise » (De luis ungaricae natura et cura[24]).
-Dans le cadre de la querelle qui oppose médecins et apothicaires parisiens[25], Pierre Le Comte, professeur de médecine à Paris, publie un Advertissement au public, contre les Œuvres charitables (1627), ouvrage de vulgarisation de Philibert Guybert, professeur de pharmacie[26].
-David de Planis Campy (1589-1644), médecin spagyriste et chirurgien du roi[27], publie son Bouquet des plus belles fleurs chimiques[28].
-Antonio Ponce de Santa Cruz (es), professeur de médecine à Valladolid et Premier médecin du roi d'Espagne Philippe III, donne son manuel de thérapeutique De impedimentis magnorum auxiliorum morborum curatione[29].
-Publication du traité de médecine vétérinaire (Discurso de albeyteria[30]) de Baltasar Francisco Ramirez, vétérinaire de la ville de Chinchón et familier de l'Inquisition (es)[31].
-Manuel Ramírez de Carrión (de) (1579-1652), pédagogue espagnol considéré comme un des pionniers de l'éducation des sourds-muets[32], publie ses Maravillas de naturaleza[33].
-Sur la peste
-Pierre Bienassis, docteur en médecine, publie une Brève méthode pour se conserver en temps de peste[34], « alors que ce fléau terrible, ne régnant plus [à Toulouse], est venu faire d'affreux ravages à Agen », sa ville natale[35].
-Antoine Davin (né en 1550 ?), médecin et conseiller du roi, fait paraître à Grenoble son traité « de la préservation et de la curation de la peste[36] ».
-Pierre-Jean Fabre (1588-1658), alchimiste, docteur en médecine de l'université de Montpellier[37], fait paraître son traité spagyrique sur la peste[38].
-Jean Grillot (1588-1647), jésuite, publie, « d'abord en latin[39], puis en français[40] […], son histoire de la peste qui, en 1628 et 1629, affligea la ville de Lyon[41] ».
-Clemens Guillielmius publie à Toulouse le premier des deux livres de son traité de peste[42], où il défend Galien contre Fernel et contre les spagyristes[43].
-Parution à Francfort, sous le titre de De pestis curatione et praecautione, de la traduction latine des écrits sur la peste de Nicolas Abraham de La Framboisière (1560-1636[44]),
-Dans son essai De terrae motu pro ut pestis causa[45], Orazio Limbisano, médecin calabrais, professeur à Naples[46], étudie « les tremblements de terre en tant que cause de la peste[47] ».
-Dans son Manifeste de ce qui s'est passé en la maladie de la peste à Villefranche-de-Rouergue[48], Durand de Monlauseur « témoigne de son expérience de médecin coordinateur du bureau de santé » de la ville[49].
-Niall Ó Glacáin (1563-1653), médecin irlandais séjournant à Toulouse pendant la grande épidémie, y publie son « traité de peste » (Tractatus de peste[50]).
-Henricus Paschasius, originaire de Lübeck, docteur en médecine et praticien à Copenhague[51], intitule son traité de peste Enchiridion de pestilentia[52].
-Font également paraître un traité de peste[53],[54], Alexandro Tadini, à Milan[55], Lodovico Locatelli, à Venise[56], ou Félicien Betera, à Brescia[57].</t>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nicolas Ager (1568-1634) fait paraître une étude sur l'« âme végétative » (Disputatio de anima vegetativa), et on lui en attribue une autre, la même année, sur les « déchirures du mésentère » (Disputatio de infractibus mesaroei).
+Camillo Baldi, philosophe et médecin bolonais, publie deux traités sous les titres de De naturali ex unguium inspectione et De humanarum propensionem ex temperamento praenotionibus.
+Parution de la Semaine des médicaments, de Jean Bonnart, maître barbier chirurgien de Paris.
+Laurens Catelan, maître apothicaire à Montpellier, publie son Discours sur les vertus et propriétés de la thériaque,.
+Nicolas Chesneau, docteur de la faculté de médecine de Toulouse, fait paraître un discours sur les eaux thermales de Barbotan, en Armagnac.
+Parution, à Messine, de la Pharmacopée de Giovanni Battista Cortesi (it).
+Juan Gutiérrez de Godoy (1579-1656), médecin du chapitre de Jaén et du cardinal Moscoso y Sandoval, fait paraître en latin des « discours philosophiques et médicaux sur le Traité de la mémoire et de la réminiscence d'Aristote ».
+Caspar Hofmann (1572-1648), professeur de médecine à Altdorf, publie ses « Quatre livres sur la génération humaine, contre Mondino de' Liuzzi » (De generatione hominis, contra Mundinum Mundinium).
+Le poète italien Giovanni Battista Lalli fait paraître sa Franceide, overo Del mal francese, poema giocoso, poème burlesque, « plus bouffon que médical », sur la syphilis.
+Andreas Lay publie la thèse de médecine qu'il a soutenue à Strasbourg  « sur la nature et le traitement de la fièvre hongroise » (De luis ungaricae natura et cura).
+Dans le cadre de la querelle qui oppose médecins et apothicaires parisiens, Pierre Le Comte, professeur de médecine à Paris, publie un Advertissement au public, contre les Œuvres charitables (1627), ouvrage de vulgarisation de Philibert Guybert, professeur de pharmacie.
+David de Planis Campy (1589-1644), médecin spagyriste et chirurgien du roi, publie son Bouquet des plus belles fleurs chimiques.
+Antonio Ponce de Santa Cruz (es), professeur de médecine à Valladolid et Premier médecin du roi d'Espagne Philippe III, donne son manuel de thérapeutique De impedimentis magnorum auxiliorum morborum curatione.
+Publication du traité de médecine vétérinaire (Discurso de albeyteria) de Baltasar Francisco Ramirez, vétérinaire de la ville de Chinchón et familier de l'Inquisition (es).
+Manuel Ramírez de Carrión (de) (1579-1652), pédagogue espagnol considéré comme un des pionniers de l'éducation des sourds-muets, publie ses Maravillas de naturaleza.</t>
         </is>
       </c>
     </row>
@@ -587,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1629_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1629_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,24 +609,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Naissances</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6 octobre : Johann Heinrich Glaser (mort en 1675), médecin suisse[58].
-2 novembre : Madame de Miramion (morte en 1696), aristocrate et religieuse française, connue pour avoir participé à soulager la misère sanitaire de son temps[59].
-15 mars : Louis Bretonneau (mort en 1674), maître chirurgien-apothicaire à Ligueil, en Touraine[60].
-23 avril : Jan Commelin (mort en 1692), botaniste hollandais, fondateur du jardin médicinal qui est à l'origine de l'actuel Jardin botanique d'Amsterdam[61].
-1629 ou 1630 : Jean-Frédéric Helvétius (mort en 1709), docteur en médecine de l'université de Harderwijk, alchimiste, médecin ordinaire de Guillaume III et des états généraux des Provinces-Unies[62].
-Vers 1629 :
-Antoine d'Aquin[63] (mort en 1696), médecin français.
-Robert Bayfield (en) (mort vers 1690), médecin et anatomiste anglais[64].
-Christophe Glaser (mort vers 1672), apothicaire chimiste, ayant étudié à Bâle, propriétaire d'une officine à Paris, apothicaire de Louis XIII et de Philippe d'Orléans, chargé du cours de chimie au Jardin du roi, impliqué dans l'affaire des poisons[65].
-Everard Maynwaring (mort en 1717), médecin anglais, auteur de nombreux ouvrages de médecine spagyrique[66].
-Henry Sampson (en) (mort en 1700), ministre non-conformiste et médecin anglais[67].
-Pierre Vinatier (mort à une date inconnue), chirurgien huguenot de Gap, condamné aux galères entre 1686 et 1687[68].
-John Ward (en) (mort en 1681), philosophe, diariste et médecin anglais[69].</t>
+          <t>Sur la peste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pierre Bienassis, docteur en médecine, publie une Brève méthode pour se conserver en temps de peste, « alors que ce fléau terrible, ne régnant plus [à Toulouse], est venu faire d'affreux ravages à Agen », sa ville natale.
+Antoine Davin (né en 1550 ?), médecin et conseiller du roi, fait paraître à Grenoble son traité « de la préservation et de la curation de la peste ».
+Pierre-Jean Fabre (1588-1658), alchimiste, docteur en médecine de l'université de Montpellier, fait paraître son traité spagyrique sur la peste.
+Jean Grillot (1588-1647), jésuite, publie, « d'abord en latin, puis en français […], son histoire de la peste qui, en 1628 et 1629, affligea la ville de Lyon ».
+Clemens Guillielmius publie à Toulouse le premier des deux livres de son traité de peste, où il défend Galien contre Fernel et contre les spagyristes.
+Parution à Francfort, sous le titre de De pestis curatione et praecautione, de la traduction latine des écrits sur la peste de Nicolas Abraham de La Framboisière (1560-1636),
+Dans son essai De terrae motu pro ut pestis causa, Orazio Limbisano, médecin calabrais, professeur à Naples, étudie « les tremblements de terre en tant que cause de la peste ».
+Dans son Manifeste de ce qui s'est passé en la maladie de la peste à Villefranche-de-Rouergue, Durand de Monlauseur « témoigne de son expérience de médecin coordinateur du bureau de santé » de la ville.
+Niall Ó Glacáin (1563-1653), médecin irlandais séjournant à Toulouse pendant la grande épidémie, y publie son « traité de peste » (Tractatus de peste).
+Henricus Paschasius, originaire de Lübeck, docteur en médecine et praticien à Copenhague, intitule son traité de peste Enchiridion de pestilentia.
+Font également paraître un traité de peste Alexandro Tadini, à Milan, Lodovico Locatelli, à Venise, ou Félicien Betera, à Brescia.</t>
         </is>
       </c>
     </row>
@@ -629,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1629_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1629_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,21 +655,67 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Naissances</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 octobre : Johann Heinrich Glaser (mort en 1675), médecin suisse.
+2 novembre : Madame de Miramion (morte en 1696), aristocrate et religieuse française, connue pour avoir participé à soulager la misère sanitaire de son temps.
+15 mars : Louis Bretonneau (mort en 1674), maître chirurgien-apothicaire à Ligueil, en Touraine.
+23 avril : Jan Commelin (mort en 1692), botaniste hollandais, fondateur du jardin médicinal qui est à l'origine de l'actuel Jardin botanique d'Amsterdam.
+1629 ou 1630 : Jean-Frédéric Helvétius (mort en 1709), docteur en médecine de l'université de Harderwijk, alchimiste, médecin ordinaire de Guillaume III et des états généraux des Provinces-Unies.
+Vers 1629 :
+Antoine d'Aquin (mort en 1696), médecin français.
+Robert Bayfield (en) (mort vers 1690), médecin et anatomiste anglais.
+Christophe Glaser (mort vers 1672), apothicaire chimiste, ayant étudié à Bâle, propriétaire d'une officine à Paris, apothicaire de Louis XIII et de Philippe d'Orléans, chargé du cours de chimie au Jardin du roi, impliqué dans l'affaire des poisons.
+Everard Maynwaring (mort en 1717), médecin anglais, auteur de nombreux ouvrages de médecine spagyrique.
+Henry Sampson (en) (mort en 1700), ministre non-conformiste et médecin anglais.
+Pierre Vinatier (mort à une date inconnue), chirurgien huguenot de Gap, condamné aux galères entre 1686 et 1687.
+John Ward (en) (mort en 1681), philosophe, diariste et médecin anglais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1629_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1629_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12 février[70] : Paul Contant (né en 1562), apothicaire, botaniste et homme de lettres français[71].
-3 mars[72] : Basilius Besler (né en 1561), apothicaire, médecin, botaniste et éditeur allemand[73].
-25 avril : Jean Robin (né en 1550), apothicaire et botaniste français[74].
-16 mai : Petrus Ryff (en) (né en 1552), mathématicien, médecin et chroniqueur suisse[75].
-13 juillet : Caspar Bartholin le Vieux (né en 1585), polymathe, professeur de médecine et de théologie danois[76].
-31 août : Jean Duret (né en 1563), médecin ordinaire du roi, et professeur au Collège royal, comme son père, Louis Duret (1527-1586[77]).
-29 septembre : Jean Faber (né vers 1570), médecin anatomiste et botaniste italien[78].
-2 octobre : Jérôme Cornélius (né vers 1598), apothicaire frison, devenu négociant, exécuté pour mutinerie[79].
-Gaspard Le Coq, sieur de Lavau (né à une date inconnue), docteur en médecine, mort à Paris[80].
-Été 1625[81], ou 1629 : Raphaël de Thoor (né vers 1565) « médecin anglais et poète en latin », auteur d'un poème sur le tabac et de divers autres ouvrages[82].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12 février : Paul Contant (né en 1562), apothicaire, botaniste et homme de lettres français.
+3 mars : Basilius Besler (né en 1561), apothicaire, médecin, botaniste et éditeur allemand.
+25 avril : Jean Robin (né en 1550), apothicaire et botaniste français.
+16 mai : Petrus Ryff (en) (né en 1552), mathématicien, médecin et chroniqueur suisse.
+13 juillet : Caspar Bartholin le Vieux (né en 1585), polymathe, professeur de médecine et de théologie danois.
+31 août : Jean Duret (né en 1563), médecin ordinaire du roi, et professeur au Collège royal, comme son père, Louis Duret (1527-1586).
+29 septembre : Jean Faber (né vers 1570), médecin anatomiste et botaniste italien.
+2 octobre : Jérôme Cornélius (né vers 1598), apothicaire frison, devenu négociant, exécuté pour mutinerie.
+Gaspard Le Coq, sieur de Lavau (né à une date inconnue), docteur en médecine, mort à Paris.
+Été 1625, ou 1629 : Raphaël de Thoor (né vers 1565) « médecin anglais et poète en latin », auteur d'un poème sur le tabac et de divers autres ouvrages.</t>
         </is>
       </c>
     </row>
